--- a/amazon_manuel_test.xlsx
+++ b/amazon_manuel_test.xlsx
@@ -18,9 +18,71 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>PROJE ÖZELLİKLERİ</t>
+  </si>
+  <si>
+    <t>Web Sitesi</t>
+  </si>
+  <si>
+    <t>Proje Adı</t>
+  </si>
+  <si>
+    <t>Testi Uygulayan</t>
+  </si>
+  <si>
+    <t>Amazon.com.tr</t>
+  </si>
+  <si>
+    <t>amazon_qa_test_lab</t>
+  </si>
+  <si>
+    <t>Müslüm Han Erol</t>
+  </si>
+  <si>
+    <t>Test Başlığı</t>
+  </si>
+  <si>
+    <t>Test Özeti</t>
+  </si>
+  <si>
+    <t>Test Adımları</t>
+  </si>
+  <si>
+    <t>Test Verileri</t>
+  </si>
+  <si>
+    <t>Gerçek Sonuçlar</t>
+  </si>
+  <si>
+    <t>Durum</t>
+  </si>
+  <si>
+    <t>Test Senaryosu</t>
+  </si>
+  <si>
+    <t>AA-01</t>
+  </si>
+  <si>
+    <t>Üye Olmak</t>
+  </si>
+  <si>
+    <t>Web sitesi üzerinden gerekli alanların doldurulup üyelik işleminini tamamlama</t>
+  </si>
+  <si>
+    <t>1-Web site adresine erişim sağlandı. 2-Sağ üstte bulunan Hesap ve Listeler başlığı altında Üye Olun linkine tıklandı. 3-Hesap Oluşturun başlığı altında Ad - Soyad, E-posta, Şifre, Şifreyi tekrar girin alanları dolduruldu. 4-Amazon hesabınızı oluşturun butonuna tıklandı ve sonraki adım olan telefon numarası doğrulama alanına geçildi. 5-Telefon numarası girildi ardından numaraya gönderilen mesaj içerisindeki letiden 6 haneli kod onay kutusuna girilerek onay işlemi ve üyelik oluşturma işlemi tamamlandı.</t>
+  </si>
+  <si>
+    <t>E-posta: hopami8062@ptiong.com Şifre: AMAZONDENEME</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +90,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,14 +139,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -69,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +230,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +265,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +447,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.amazon.com.tr/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/amazon_manuel_test.xlsx
+++ b/amazon_manuel_test.xlsx
@@ -19,29 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>PROJE ÖZELLİKLERİ</t>
   </si>
   <si>
-    <t>Web Sitesi</t>
-  </si>
-  <si>
-    <t>Proje Adı</t>
-  </si>
-  <si>
-    <t>Testi Uygulayan</t>
-  </si>
-  <si>
-    <t>Amazon.com.tr</t>
-  </si>
-  <si>
-    <t>amazon_qa_test_lab</t>
-  </si>
-  <si>
-    <t>Müslüm Han Erol</t>
-  </si>
-  <si>
     <t>Test Başlığı</t>
   </si>
   <si>
@@ -66,23 +48,221 @@
     <t>AA-01</t>
   </si>
   <si>
-    <t>Üye Olmak</t>
-  </si>
-  <si>
     <t>Web sitesi üzerinden gerekli alanların doldurulup üyelik işleminini tamamlama</t>
   </si>
   <si>
-    <t>1-Web site adresine erişim sağlandı. 2-Sağ üstte bulunan Hesap ve Listeler başlığı altında Üye Olun linkine tıklandı. 3-Hesap Oluşturun başlığı altında Ad - Soyad, E-posta, Şifre, Şifreyi tekrar girin alanları dolduruldu. 4-Amazon hesabınızı oluşturun butonuna tıklandı ve sonraki adım olan telefon numarası doğrulama alanına geçildi. 5-Telefon numarası girildi ardından numaraya gönderilen mesaj içerisindeki letiden 6 haneli kod onay kutusuna girilerek onay işlemi ve üyelik oluşturma işlemi tamamlandı.</t>
-  </si>
-  <si>
     <t>E-posta: hopami8062@ptiong.com Şifre: AMAZONDENEME</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web Sitesi: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amazon.com.tr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Proje Adı: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amazon_qa_test_lab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Testi Uygulayan: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Müslüm Han Erol</t>
+    </r>
+  </si>
+  <si>
+    <t>AA-02</t>
+  </si>
+  <si>
+    <t>1-Web site adresine erişim sağlandı. 2-Sağ üstte bulunan Hesap ve Listeler başlığı altında Üye Olun linkine tıklandı. 3-Hesap Oluşturun başlığı altında Ad - Soyad, E-posta, Şifre, Şifreyi tekrar girin alanları dolduruldu. 4-Amazon hesabınızı oluşturun butonuna tıklandı ve sonraki adım olan telefon numarası doğrulama alanına geçildi. 5-Telefon numarası girildi ardından numaraya gönderilen mesaj içerisinde iletilen 6 haneli kod onay kutusuna girilerek onay işlemi ve üyelik oluşturma işlemi tamamlandı.</t>
+  </si>
+  <si>
+    <t>Tamamlandı</t>
+  </si>
+  <si>
+    <t>Üyelik işlemi başarıyla yapıldı.</t>
+  </si>
+  <si>
+    <t>Web sitesi üzerinden gerekli alanların doldurulup giriş işleminini tamamlama</t>
+  </si>
+  <si>
+    <t>1-Web site adresine erişim sağlandı. 2-Sağ üstte bulunan Hesap ve Listeler başlığı altında Giriş yap butonuna tıklandı. 3-E-posta adresi veya telefon numarası inputu dolduruldu, devam et butonuna tıklandı. 4-Şifre input alanı dolduruldu ve Giriş yap butonuna tıklandı ve başarılı giriş yapıldı.</t>
+  </si>
+  <si>
+    <t>Başarılı üyelik oluşturma</t>
+  </si>
+  <si>
+    <t>Başarılı kullanıcı girişi</t>
+  </si>
+  <si>
+    <t>AB-01</t>
+  </si>
+  <si>
+    <t>AB-02</t>
+  </si>
+  <si>
+    <t>Başarısız kullanıcı girişi eposta</t>
+  </si>
+  <si>
+    <t>AB-03</t>
+  </si>
+  <si>
+    <t>Başarısız kullanıcı girişi şifre</t>
+  </si>
+  <si>
+    <t>Web sitesi üzerinden gerekli alanların yanlış doldurulup e-posta giriş işleminde hata alma</t>
+  </si>
+  <si>
+    <t>Web sitesi üzerinden gerekli alanların yanlış doldurulup şifre giriş işleminde hata alma</t>
+  </si>
+  <si>
+    <t>1-Web site adresine erişim sağlandı. 2-Sağ üstte bulunan Hesap ve Listeler başlığı altında Giriş yap butonuna tıklandı. 3-E-posta adresi veya telefon numarası inputu yanlış dolduruldu, devam et butonuna tıklandı. 4-Şifre input alanı yanlış dolduruldu, Giriş yap butonuna tıklandı ve "Bir sorun oluştu Şifreniz yanlış" hatası alındı..</t>
+  </si>
+  <si>
+    <t>1-Web site adresine erişim sağlandı. 2-Sağ üstte bulunan Hesap ve Listeler başlığı altında Giriş yap butonuna tıklandı. 3-E-posta adresi veya telefon numarası inputu yanlış dolduruldu, devam et butonuna tıklandı. 4-"Yanlış veya geçersiz e-posta adresi veya cep telefonu numarası. Lütfen düzeltin ve tekrar deneyin." hata mesajı verildi.</t>
+  </si>
+  <si>
+    <t>E-posta: hopami8062@ptiongGGG.com</t>
+  </si>
+  <si>
+    <t>E-posta: hopami8062@ptiong.com Şifre: AMAZONDENEME123</t>
+  </si>
+  <si>
+    <t>Kullanıcı girişi başarıyla tamamlandı.</t>
+  </si>
+  <si>
+    <t>E-posta hatalı girilerek uyarı alındı sonraki adım olan şifre alanına geçilmedi.</t>
+  </si>
+  <si>
+    <t>Şifre hatalı girilerek Şifreniz yanlış uyarısı alındı ve hesaba erişim izni verilmedi.</t>
+  </si>
+  <si>
+    <t>Başarısız üyelik oluşturma</t>
+  </si>
+  <si>
+    <t>Web sitesi üzerinden gerekli alanların eksik ve hatalı doldurulup üyelik işlemininin tamamlanmaması</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Web site adresine erişim sağlandı. 2-Sağ üstte bulunan Hesap ve Listeler başlığı altında Üye Olun linkine tıklandı. 3-Hesap Oluşturun başlığı altında Ad - Soyad, E-posta alanları dolduruldu. Şifre, Şifreyi tekrar girin alanları 5 karakter girildi. 4-Amazon hesabınızı oluşturun butonuna tıklandı ve şifre hatası alındı "Şifreler en az 6 karakterden oluşmalıdır." </t>
+  </si>
+  <si>
+    <t>Ad: Ddeneme ,E-posta: hopami8062@ptiong.com, Şifre: AMAZ</t>
+  </si>
+  <si>
+    <t>Üyelik işlemi başarsız</t>
+  </si>
+  <si>
+    <t>AA-03</t>
+  </si>
+  <si>
+    <t>Başarılı koşullu üyelik oluşturma</t>
+  </si>
+  <si>
+    <t>Üyelik işlem sıralamasında bulunan telefon doğrulama adımında üyelik tamamlandıktan sonra Hesabım &gt; Giriş yapma ve güvenlik &gt; Birincil cep telefonu numarası alanından silineceği açıklaması bulunuyor. Eğer kullanıcı telefon numarasını sonradan silebilecekse üyelik adımından bu koşulun çıkarılması gerekir. Eğer üyelik adımında bu bilgi isteniyorsa Hesabım &gt; Giriş yapma ve güvenlik &gt; Birincil cep telefonu numarası alanından sadece güncelleme işlemi yapılmalı. Sadece hesabın silinmesi durumunda tüm verilerle beraber telefon numarası da silinebilmeli.</t>
+  </si>
+  <si>
+    <t>AC-01</t>
+  </si>
+  <si>
+    <t>1-Web site adresine erişim sağlandı.2-Web sitesi navbar alanında bulunan Amazon.com.tr araması yapın search alanında ihtiyaç duyulan ürün adı veya marka adı yazıldı. 3-Search alnının solunma bulunan turunca merceğe tıklandı 4-Arama sonuçları listelendi.</t>
+  </si>
+  <si>
+    <t>Erkek spor ayakkabı</t>
+  </si>
+  <si>
+    <t>Search input alanına kelime girişi yapılırken sistemin öneride bulunması kullanıcıya kolaylık sağlıyor ve istediği ürüne erişime kolaylaşıyor.</t>
+  </si>
+  <si>
+    <t>AD-01</t>
+  </si>
+  <si>
+    <t>Web sitesi üzerinden arama yapıldıktan sonra listelenen ürün lerin sıralanması</t>
+  </si>
+  <si>
+    <t>Fiyat:Düşükten Yükseğe, Fiyat:Yüksekten Düşüğe, Ort. Müşteri Yorumu, En son Gelenler, Çok Satanlar</t>
+  </si>
+  <si>
+    <t>AD-02</t>
+  </si>
+  <si>
+    <t>AD-03</t>
+  </si>
+  <si>
+    <t>Web sitesi üzerinden ilgilenilen ürünün aranması ve listelenmesi</t>
+  </si>
+  <si>
+    <t>Başarılı ürün arama ve listeleme</t>
+  </si>
+  <si>
+    <t>Listelenen ürünlerin başarılı sıralanması</t>
+  </si>
+  <si>
+    <t>Listelenen ürünlerin sıralanmaması</t>
+  </si>
+  <si>
+    <t>Listelenen ürünlerin eksik sıralanması</t>
+  </si>
+  <si>
+    <t>1-Ürünlerin listelenmesi sağlandı 2-Navbar altında bulunan alanda Sıralama Ölçütü alanı görüldü 3-Sıralama ölçütü alanında bulunan Fiyat:Düşükten Yükseğe, Fiyat:Yüksekten Düşüğe, Ort. Müşteri Yorumu, En son Gelenler, Çok Satanlar seçeneklerinden seçim yapılarak işlem tamamlandı</t>
+  </si>
+  <si>
+    <t>Listelenen ürünler üzerinden fiyatlama, müşteri yorumları, en son eklenen ürünler ve çok satan ürünler seçenekleriyle müşteri sıralama ölçütünü belirleyip istediği sonuna yaklaşabilir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiyat:Düşükten Yükseğe, Fiyat:Yüksekten Düşüğe, Ort. Müşteri Yorumu, En son Gelenler, Çok Satanlar </t>
+  </si>
+  <si>
+    <t>1-Ürünlerin listelenmesi sağlandı 2-Navbar altında bulunan alanda Sıralama Ölçütü alanı görüldü 3-Sıralama ölçütü alanında bulunan Fiyat:Düşükten Yükseğe, Fiyat:Yüksekten Düşüğe, Ort. Müşteri Yorumu, En son Gelenler, Çok Satanlar seçenekleri görüldü 4- Mevcut seçeneklerin yetersiz olduğu ve daha fazla sıralama ölçütünün olması gerektiği düşünüldü.</t>
+  </si>
+  <si>
+    <t>Fiyat:Düşükten Yükseğe, Fiyat:Yüksekten Düşüğe, Ort. Müşteri Yorumu, En son Gelenler, Çok Satanlar seçenekleri yeterli görünebilmekle beraber daha fazla sıralama ölçütü olmalı. İndirim oranına göre sırala ve sınırlı stok olanları göster seçenekleri eklenebilir.</t>
+  </si>
+  <si>
+    <t>Web sitesi üzerinden Günün fırsatları alanındaki listelenen ürünlerin sıralanmaması</t>
+  </si>
+  <si>
+    <t>1-Web site adresine erişim sağlandı. 2-Ana sayfada bulunan "Öne çıkan fırsat ve mağazalar" başlığı altındaki Günün fırsatları linkine tıklandı 3-Bu başlık altında bulunan ürünler listelendi 4-Sıralama yapılmak istendiğinde AD-01 testinde olduğu gibi herhangi bir sıralama seçeneğine rastlanılmadı.</t>
+  </si>
+  <si>
+    <t>Ürünlerin ana sayfa üzerinden arama yapılması, listelenmesi ve sıralanması adımları Günün fırsatları linki ile erişilen ürünlerde sadece listeleme işleminden ibaret. Sıralama yapılmak istendiğinde Fiyat:Düşükten Yükseğe, Fiyat:Yüksekten Düşüğe, Ort. Müşteri Yorumu, En son Gelenler, Çok Satanlar seçenekleri bulunmuyor. Sadece sol tarafta bulunan İndirim oranı alanında %10 indirim veya daha fazlası, %25 indirim veya daha fazlası, %50 indirim veya daha fazlası, %70 indirim veya daha fazlası gibi seçenekler mevcut. Fiyat artan-azalan, müşteri yorumu, enson gelenler, en çok satanlar seçenekleri bu alanda da olmalı. Bu alanda bulunan indirim oranı seçeneği ise AD-01 testindeki sıralama seçenekleri arasına eklenmeli.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +294,23 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -159,13 +356,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -450,20 +648,20 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -471,144 +669,264 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
@@ -827,10 +1145,7 @@
       <c r="I35" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.amazon.com.tr/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>